--- a/Реализации задач.xlsx
+++ b/Реализации задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E922D32-2074-4FDB-83DD-7D247BDB5886}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E3ABE6-AF63-4A5E-B179-9804FC410B96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>Краткое описание</t>
   </si>
@@ -314,9 +314,6 @@
     <t>4-5</t>
   </si>
   <si>
-    <t>В Мапе поменять местами ключи и значения</t>
-  </si>
-  <si>
     <t>4-6</t>
   </si>
   <si>
@@ -386,6 +383,12 @@
   </si>
   <si>
     <t>Public</t>
+  </si>
+  <si>
+    <t>В мапе поменять местами ключи и значения</t>
+  </si>
+  <si>
+    <t>Описать классы.</t>
   </si>
 </sst>
 </file>
@@ -737,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +784,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="7">
         <f>(SUM(E3:E29))/A2*100</f>
-        <v>21.111111111111111</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1045,11 +1048,13 @@
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>52</v>
@@ -1136,7 +1141,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
@@ -1151,10 +1156,10 @@
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1164,15 +1169,15 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
@@ -1182,15 +1187,15 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
@@ -1200,15 +1205,15 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
@@ -1218,15 +1223,15 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
@@ -1236,15 +1241,15 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
@@ -1254,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
